--- a/xls/schema/mysql/systems.xlsx
+++ b/xls/schema/mysql/systems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,13 +119,6 @@
     <t>游戏系统配置</t>
   </si>
   <si>
-    <t>test_game_system</t>
-  </si>
-  <si>
-    <t>test_game_logDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>localhost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +132,6 @@
   </si>
   <si>
     <t>游戏log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_game_zoneDB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,8 +266,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -362,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -371,6 +378,9 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -379,6 +389,9 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -727,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -764,16 +777,16 @@
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>22</v>
@@ -787,19 +800,19 @@
         <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1">
@@ -807,24 +820,25 @@
         <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -837,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -925,7 +939,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
